--- a/document/詳細設計/画面遷移図.xlsx
+++ b/document/詳細設計/画面遷移図.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spux8\Documents\school\13_ProgrammingPractice\document\【実習】各種設計書\詳細設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spux8\Documents\school\14_work\document\詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9A2EAC-627A-4B61-9BDF-C508707B75AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44046908-86A2-4DAC-9244-64CDBD09837D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
     <sheet name="画面遷移図" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面遷移図!$A$1:$AC$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面遷移図!$A$1:$AC$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">画面遷移図!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙 '!$1:$1</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -183,36 +183,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>管理者権限のみ</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>任意のキーワードを入力し</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>検索ボタンを押下</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>更新ボタン</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -234,9 +204,15 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>TOPページに戻るボタン</t>
-    <rPh sb="7" eb="8">
-      <t>モド</t>
+    <t>蔵書記録管理システム</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウショ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -501,7 +477,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -604,7 +580,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -798,15 +773,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>132080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63750</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53590</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -821,8 +796,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="281940" y="1775460"/>
-          <a:ext cx="1226820" cy="543810"/>
+          <a:off x="416560" y="1137920"/>
+          <a:ext cx="5943600" cy="551430"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -866,6 +841,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -873,7 +858,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ログイン画面</a:t>
+            <a:t>画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -951,16 +936,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>TOP</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -968,7 +943,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>画面</a:t>
+            <a:t>マイページ画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
             <a:solidFill>
@@ -984,16 +959,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>172085</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>80645</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1011,8 +986,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3268980" y="4396740"/>
-          <a:ext cx="4445" cy="373380"/>
+          <a:off x="4343400" y="4511040"/>
+          <a:ext cx="4445" cy="378460"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1043,16 +1018,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2540</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>195580</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>59690</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>252730</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>19300</xdr:rowOff>
+      <xdr:rowOff>70100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1067,8 +1042,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2821940" y="4770120"/>
-          <a:ext cx="902970" cy="545080"/>
+          <a:off x="3893820" y="4889500"/>
+          <a:ext cx="910590" cy="555240"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -1125,9 +1100,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>35175</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63750</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -1150,8 +1125,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="880995" y="2319270"/>
-          <a:ext cx="2925" cy="423930"/>
+          <a:off x="891540" y="1727200"/>
+          <a:ext cx="0" cy="1054100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1182,16 +1157,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>172085</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>80645</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>19300</xdr:rowOff>
+      <xdr:rowOff>70100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123190</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1209,8 +1184,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3273425" y="5315200"/>
-          <a:ext cx="3175" cy="263910"/>
+          <a:off x="4347845" y="5444740"/>
+          <a:ext cx="3175" cy="266450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1241,14 +1216,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>214630</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>33270</xdr:rowOff>
     </xdr:to>
@@ -1265,8 +1240,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2752090" y="5585460"/>
-          <a:ext cx="1469390" cy="543810"/>
+          <a:off x="3129280" y="5666740"/>
+          <a:ext cx="2174240" cy="553970"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1330,9 +1305,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
@@ -1354,9 +1329,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5692140" y="2339340"/>
-          <a:ext cx="7620" cy="426720"/>
+        <a:xfrm flipV="1">
+          <a:off x="5750560" y="1717040"/>
+          <a:ext cx="0" cy="1087120"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1387,16 +1362,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>48510</xdr:rowOff>
+      <xdr:rowOff>89150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1411,8 +1386,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2659380" y="3840480"/>
-          <a:ext cx="1508760" cy="543810"/>
+          <a:off x="3749040" y="3934460"/>
+          <a:ext cx="1216660" cy="553970"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1463,7 +1438,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>アカウント一覧画面</a:t>
+            <a:t>検索画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1472,23 +1447,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>109470</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="角丸四角形 3">
+        <xdr:cNvPr id="14" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F23CA2-3914-410B-979D-853A9D491A94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31FAF547-7956-4A04-AC30-E3C81DE6A6DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,8 +1471,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5090160" y="1821180"/>
-          <a:ext cx="1226820" cy="543810"/>
+          <a:off x="2014220" y="3911600"/>
+          <a:ext cx="1452880" cy="551430"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1548,7 +1523,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ログアウト画面</a:t>
+            <a:t>蔵書記録登録画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1557,99 +1532,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="角丸四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31FAF547-7956-4A04-AC30-E3C81DE6A6DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="236220" y="3855720"/>
-          <a:ext cx="1440180" cy="543810"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="31750" cmpd="thinThick">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アカウント登録画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>170180</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>63750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>181610</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1669,8 +1559,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="944880" y="3279390"/>
-          <a:ext cx="11430" cy="576330"/>
+          <a:off x="2730500" y="3325110"/>
+          <a:ext cx="11430" cy="586490"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1701,16 +1591,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>147320</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>157230</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>151130</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4830</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1727,8 +1617,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3268980" y="3276600"/>
-          <a:ext cx="3810" cy="576330"/>
+          <a:off x="4414520" y="3332480"/>
+          <a:ext cx="3810" cy="583950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1759,139 +1649,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>125095</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>149610</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF7BB0A-EFB2-40C8-8894-E3981AE3C846}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2941320" y="6141720"/>
-          <a:ext cx="3175" cy="263910"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>86995</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>141990</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A45B142-09A7-4FE9-A28D-72009C73CED9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4030980" y="6134100"/>
-          <a:ext cx="3175" cy="263910"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>56130</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>35560</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="角丸四角形 3">
+        <xdr:cNvPr id="3" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09A0FE2-21B2-4A77-87F3-780AF6B1160D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F11472-12D6-47C9-A146-CB85AA745B39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,8 +1673,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2506980" y="6446520"/>
-          <a:ext cx="883920" cy="345690"/>
+          <a:off x="5222240" y="3921760"/>
+          <a:ext cx="1071880" cy="553970"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1960,23 +1734,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>48510</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>56130</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="角丸四角形 3">
+        <xdr:cNvPr id="4" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32FF8520-E7FD-4801-8020-093B441270DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150C4F66-B1CF-4BD5-BF33-13F975175D3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,8 +1758,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3596640" y="6438900"/>
-          <a:ext cx="883920" cy="345690"/>
+          <a:off x="6512560" y="3901440"/>
+          <a:ext cx="1173480" cy="553970"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2045,41 +1819,956 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>78740</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>55880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63750</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="直線矢印コネクタ 91">
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2DDE675-60EF-455C-A91E-DBEBDA150918}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD309BC-A754-4635-9583-5319320D9C98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="14" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="1097790" y="3157980"/>
-          <a:ext cx="1100070" cy="1383030"/>
+        <a:xfrm>
+          <a:off x="5768340" y="3317240"/>
+          <a:ext cx="3810" cy="583950"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -20780"/>
-            <a:gd name="adj2" fmla="val 99724"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>271780</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>275590</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>162310</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C5622F-DFCF-4E8C-BFC8-C789F7DB91AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7099300" y="3327400"/>
+          <a:ext cx="3810" cy="583950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>193040</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="フリーフォーム: 図形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{561D6ABF-13A7-86F5-FC8E-739D8B8A74FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4348480" y="4541520"/>
+          <a:ext cx="2672080" cy="2458720"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3007360"/>
+            <a:gd name="connsiteY0" fmla="*/ 1706880 h 2458720"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 3007360"/>
+            <a:gd name="connsiteY1" fmla="*/ 2458720 h 2458720"/>
+            <a:gd name="connsiteX2" fmla="*/ 3007360 w 3007360"/>
+            <a:gd name="connsiteY2" fmla="*/ 2458720 h 2458720"/>
+            <a:gd name="connsiteX3" fmla="*/ 3007360 w 3007360"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 2458720"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3007360" h="2458720">
+              <a:moveTo>
+                <a:pt x="0" y="1706880"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="2458720"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3007360" y="2458720"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3007360" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="フリーフォーム: 図形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C5E4E74-8E0B-697E-5DD7-A2BA29B0E6D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3342640" y="4561840"/>
+          <a:ext cx="2418080" cy="2235200"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2814320"/>
+            <a:gd name="connsiteY0" fmla="*/ 1686560 h 2286000"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 2814320"/>
+            <a:gd name="connsiteY1" fmla="*/ 1686560 h 2286000"/>
+            <a:gd name="connsiteX2" fmla="*/ 10160 w 2814320"/>
+            <a:gd name="connsiteY2" fmla="*/ 2286000 h 2286000"/>
+            <a:gd name="connsiteX3" fmla="*/ 2814320 w 2814320"/>
+            <a:gd name="connsiteY3" fmla="*/ 2286000 h 2286000"/>
+            <a:gd name="connsiteX4" fmla="*/ 2814320 w 2814320"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2286000"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2814320" h="2286000">
+              <a:moveTo>
+                <a:pt x="0" y="1686560"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1686560"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="14762" y="2055615"/>
+                <a:pt x="10160" y="1855826"/>
+                <a:pt x="10160" y="2286000"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="2814320" y="2286000"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2814320" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>84070</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36970994-F60A-4C55-B21A-F1FADD5CC503}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314960" y="3931920"/>
+          <a:ext cx="1402080" cy="551430"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ユーザー情報画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4830</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B803C5B6-D189-4229-A39B-F271CD3B87EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="929640" y="3332480"/>
+          <a:ext cx="3810" cy="583950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>252730</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3781EC24-1B12-4635-A014-27DFA98F24AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1390650" y="3362960"/>
+          <a:ext cx="1270" cy="528320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0B3F61-1ECE-47A6-A9A5-F9283BFE3D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3138170" y="3362960"/>
+          <a:ext cx="1270" cy="528320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>172720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0893E31B-F82A-4FA4-90AE-5E8F66A70774}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4723130" y="3362960"/>
+          <a:ext cx="1270" cy="528320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>90170</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F35DD1-9671-4D78-BED2-9DD202BCFDDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6064250" y="3342640"/>
+          <a:ext cx="1270" cy="528320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A92396-1A11-415B-9459-1C7A40085D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7385050" y="3373120"/>
+          <a:ext cx="1270" cy="528320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132080</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23110</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4156D95-740A-4F37-AF69-2936E8D00943}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2123440" y="2082800"/>
+          <a:ext cx="1605280" cy="551430"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ユーザー登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778F2032-1078-41EE-A97E-90544DA4BECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609850" y="1686560"/>
+          <a:ext cx="0" cy="380750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68205873-043E-4680-A633-531E8D569B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3068320" y="1727200"/>
+          <a:ext cx="0" cy="314960"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
@@ -2407,7 +3096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
@@ -4044,8 +4733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
+    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -4129,7 +4818,7 @@
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4856,9 +5545,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -4866,9 +5553,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="V23" s="5"/>
@@ -5062,9 +5747,7 @@
       <c r="A31" s="19"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -5075,9 +5758,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
@@ -5097,9 +5778,7 @@
       <c r="A32" s="19"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -5110,9 +5789,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
@@ -5326,16 +6003,14 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="5" t="s">
-        <v>23</v>
+      <c r="M39" s="5" t="s">
+        <v>20</v>
       </c>
-      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
-      <c r="P39" s="5" t="s">
-        <v>25</v>
+      <c r="Q39" s="5" t="s">
+        <v>22</v>
       </c>
-      <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
@@ -5361,16 +6036,14 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="5" t="s">
-        <v>24</v>
+      <c r="M40" s="5" t="s">
+        <v>21</v>
       </c>
-      <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
-      <c r="P40" s="5" t="s">
-        <v>24</v>
+      <c r="Q40" s="5" t="s">
+        <v>21</v>
       </c>
-      <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
@@ -5385,66 +6058,66 @@
       <c r="AC40" s="21"/>
     </row>
     <row r="41" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="60"/>
-      <c r="T41" s="60"/>
-      <c r="U41" s="60"/>
-      <c r="V41" s="60"/>
-      <c r="W41" s="60"/>
-      <c r="X41" s="60"/>
-      <c r="Y41" s="60"/>
-      <c r="Z41" s="60"/>
-      <c r="AA41" s="60"/>
-      <c r="AB41" s="60"/>
-      <c r="AC41" s="60"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
     </row>
     <row r="42" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
-      <c r="R42" s="60"/>
-      <c r="S42" s="60"/>
-      <c r="T42" s="60"/>
-      <c r="U42" s="60"/>
-      <c r="V42" s="60"/>
-      <c r="W42" s="60"/>
-      <c r="X42" s="60"/>
-      <c r="Y42" s="60"/>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="60"/>
-      <c r="AB42" s="60"/>
-      <c r="AC42" s="60"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/document/詳細設計/画面遷移図.xlsx
+++ b/document/詳細設計/画面遷移図.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spux8\Documents\school\14_work\document\詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44046908-86A2-4DAC-9244-64CDBD09837D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6EE95E-AA32-434D-BD8F-2E0A9304547E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -213,6 +213,16 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Rev 1.01</t>
+  </si>
+  <si>
+    <t>libraryページの追加</t>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1362,8 +1372,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
@@ -1386,8 +1396,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3749040" y="3934460"/>
-          <a:ext cx="1216660" cy="553970"/>
+          <a:off x="4043680" y="3934460"/>
+          <a:ext cx="922020" cy="553970"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1447,16 +1457,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63750</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>233680</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1471,8 +1481,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2014220" y="3911600"/>
-          <a:ext cx="1452880" cy="551430"/>
+          <a:off x="1788160" y="3911600"/>
+          <a:ext cx="1005840" cy="711200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1532,16 +1542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>170180</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>63750</xdr:rowOff>
+      <xdr:rowOff>73910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>181610</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>252730</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1554,12 +1564,11 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:endCxn id="14" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2730500" y="3325110"/>
+          <a:off x="2232660" y="3335270"/>
           <a:ext cx="11430" cy="586490"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1650,7 +1659,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
@@ -1673,8 +1682,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5222240" y="3921760"/>
-          <a:ext cx="1071880" cy="553970"/>
+          <a:off x="5394960" y="3921760"/>
+          <a:ext cx="899160" cy="553970"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2168,8 +2177,8 @@
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>10160</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>84070</xdr:rowOff>
     </xdr:to>
@@ -2187,7 +2196,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="314960" y="3931920"/>
-          <a:ext cx="1402080" cy="551430"/>
+          <a:ext cx="1178560" cy="551430"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2306,13 +2315,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>252730</xdr:colOff>
+      <xdr:colOff>110490</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>111760</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>142240</xdr:rowOff>
     </xdr:to>
@@ -2331,7 +2340,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1390650" y="3362960"/>
+          <a:off x="1248410" y="3362960"/>
           <a:ext cx="1270" cy="528320"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2363,16 +2372,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>8890</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>10160</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2389,7 +2398,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3138170" y="3362960"/>
+          <a:off x="2640330" y="3373120"/>
           <a:ext cx="1270" cy="528320"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2766,6 +2775,217 @@
         <a:xfrm flipV="1">
           <a:off x="3068320" y="1727200"/>
           <a:ext cx="0" cy="314960"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142240</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>210820</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125077DD-1795-4074-BBF8-B9B774D206D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2987040" y="3975100"/>
+          <a:ext cx="922020" cy="553970"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>library</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208280</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>212090</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14990</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5FE307-BA14-4211-A5C0-E977A62807BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3337560" y="3342640"/>
+          <a:ext cx="3810" cy="583950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>232410</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>233680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3B4ADA-098E-46B9-B9C8-7CF23CA1A9AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3646170" y="3373120"/>
+          <a:ext cx="1270" cy="528320"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3097,7 +3317,7 @@
   <dimension ref="A1:FT43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD26" sqref="AD26"/>
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1"/>
@@ -4134,15 +4354,21 @@
     </row>
     <row r="27" spans="1:32" ht="13.05" customHeight="1">
       <c r="A27" s="19"/>
-      <c r="B27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="8"/>
+      <c r="F27" s="46">
+        <v>45721</v>
+      </c>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -4162,7 +4388,9 @@
       <c r="AA27" s="9"/>
       <c r="AB27" s="10"/>
       <c r="AC27" s="23"/>
-      <c r="AD27" s="10"/>
+      <c r="AD27" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="AE27" s="5"/>
       <c r="AF27" s="21"/>
     </row>
@@ -4711,7 +4939,8 @@
       <c r="AF43" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="F27:I27"/>
     <mergeCell ref="B9:E10"/>
     <mergeCell ref="F8:Q8"/>
     <mergeCell ref="L17:U19"/>
@@ -4733,8 +4962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
